--- a/target/classes/public/FourthYear.xlsx
+++ b/target/classes/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="28">
   <si>
     <t>CSE</t>
   </si>
@@ -443,27 +443,28 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -472,27 +473,27 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6"/>
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -506,24 +507,24 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8"/>
+        <v>3</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
       <c r="H8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8"/>
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -532,25 +533,27 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -560,30 +563,27 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
         <v>3</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12"/>
-      <c r="K12" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -603,27 +603,29 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
         <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -632,28 +634,27 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
         <v>14</v>
-      </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -662,26 +663,30 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C20"/>
       <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E20"/>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -691,7 +696,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -700,19 +705,16 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22"/>
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
       <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22"/>
-      <c r="J22" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -721,28 +723,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24"/>
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -762,25 +762,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>20</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
         <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -789,29 +789,29 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30"/>
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="D30"/>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30"/>
       <c r="H30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" t="s">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30"/>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -820,12 +820,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32"/>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
@@ -834,14 +834,16 @@
       <c r="F32" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+      <c r="G32"/>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -854,26 +856,22 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34"/>
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
       <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34"/>
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>3</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -882,26 +880,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
+      <c r="A36"/>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>22</v>
-      </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -920,28 +920,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40"/>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
         <v>25</v>
       </c>
-      <c r="B40"/>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
-      </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -951,7 +951,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -962,16 +962,14 @@
       <c r="D42" t="s">
         <v>27</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
       <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42"/>
-      <c r="H42" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -981,7 +979,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -990,17 +988,16 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44"/>
+        <v>27</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -1009,27 +1006,27 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46"/>
-      <c r="B46" t="s">
-        <v>3</v>
-      </c>
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46"/>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
@@ -1039,27 +1036,30 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B48"/>
       <c r="C48" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48"/>
-      <c r="H48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48"/>
-      <c r="J48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48" t="s">
         <v>3</v>
       </c>
     </row>

--- a/target/classes/public/FourthYear.xlsx
+++ b/target/classes/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="28">
   <si>
     <t>CSE</t>
   </si>
@@ -459,11 +459,10 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -474,26 +473,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6"/>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -506,25 +506,25 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8"/>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -533,28 +533,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
         <v>5</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -564,26 +564,26 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -603,28 +603,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>3</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="s">
         <v>3</v>
       </c>
-      <c r="H16"/>
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
     </row>
@@ -635,7 +632,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -643,18 +640,20 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18"/>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
         <v>11</v>
       </c>
+      <c r="G18"/>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -671,22 +670,20 @@
       <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
       <c r="H20" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -695,11 +692,9 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -708,12 +703,15 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
       </c>
       <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -723,26 +721,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -761,26 +761,29 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -790,28 +793,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30"/>
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
       <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30"/>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30"/>
-      <c r="J30" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -821,28 +821,27 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32"/>
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
       <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32"/>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G32"/>
       <c r="H32" t="s">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32" t="s">
+      <c r="I32"/>
+      <c r="J32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -855,22 +854,23 @@
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
+      <c r="B34"/>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -880,28 +880,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36"/>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36"/>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E36"/>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36"/>
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
       <c r="I36" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
@@ -920,27 +920,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40"/>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
-        <v>3</v>
-      </c>
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40"/>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40"/>
       <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>25</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F40"/>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
       </c>
       <c r="I40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -950,26 +951,29 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42"/>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>25</v>
       </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
+      <c r="F42"/>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -979,25 +983,27 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
         <v>24</v>
       </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>26</v>
-      </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -1009,24 +1015,24 @@
       <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46"/>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
       <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
         <v>11</v>
       </c>
+      <c r="D46"/>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
@@ -1036,31 +1042,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48"/>
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
       <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48"/>
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
       <c r="E48" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48"/>
+        <v>27</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
       <c r="G48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48"/>
-      <c r="I48" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48"/>
-      <c r="M48" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/public/FourthYear.xlsx
+++ b/target/classes/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="45">
   <si>
     <t>CSE</t>
   </si>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t xml:space="preserve">EE894   /   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU801  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS891  /  </t>
+  </si>
+  <si>
+    <t>CS802A  /  CS802B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT802A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE802A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE801A  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE891  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE894  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE802A  /  </t>
   </si>
 </sst>
 </file>
@@ -443,27 +494,26 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -473,27 +523,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6"/>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -502,29 +550,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8"/>
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8"/>
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8"/>
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -534,27 +579,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10"/>
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -564,26 +607,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12"/>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -603,26 +645,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16"/>
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -632,28 +673,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18"/>
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
       <c r="E18" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18"/>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -662,28 +700,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
-      <c r="C20"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -692,27 +728,26 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22"/>
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
@@ -721,28 +756,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24"/>
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -761,29 +794,26 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28"/>
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28"/>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
       <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28"/>
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
       <c r="F28" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -793,25 +823,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -821,28 +851,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32"/>
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
       <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="s">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -852,26 +879,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34"/>
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -881,27 +907,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36"/>
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36"/>
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
       <c r="F36" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -921,28 +945,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
       <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40"/>
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
       <c r="G40" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" t="s">
-        <v>27</v>
-      </c>
-      <c r="I40" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -951,29 +972,26 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42"/>
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42"/>
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F42"/>
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
       <c r="G42" t="s">
         <v>3</v>
-      </c>
-      <c r="H42" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -983,27 +1001,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44"/>
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -1013,26 +1029,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46"/>
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47">
@@ -1042,25 +1057,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/public/FourthYear.xlsx
+++ b/target/classes/public/FourthYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="67">
   <si>
     <t>CSE</t>
   </si>
@@ -154,6 +154,72 @@
   </si>
   <si>
     <t xml:space="preserve">EE802A  /  </t>
+  </si>
+  <si>
+    <t>CS894[SMa]  /  []</t>
+  </si>
+  <si>
+    <t>CS891[DC, SMa]  /  []</t>
+  </si>
+  <si>
+    <t>CS801A[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>CS802A[BDu]  /  CS802B[BDu]</t>
+  </si>
+  <si>
+    <t>HU801[KB]  /  []</t>
+  </si>
+  <si>
+    <t>CS894[SSK]  /  []</t>
+  </si>
+  <si>
+    <t>IT801A[RCh]  /  []</t>
+  </si>
+  <si>
+    <t>IT894[AB]  /  []</t>
+  </si>
+  <si>
+    <t>IT891[KDa, SU]  /  []</t>
+  </si>
+  <si>
+    <t>IT802A[KDa]  /  []</t>
+  </si>
+  <si>
+    <t>IT894[AKS]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[PC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE891[AnC, BC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE802A[ArD]  /  []</t>
+  </si>
+  <si>
+    <t>ECE801A[DK]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[RND]  /  []</t>
+  </si>
+  <si>
+    <t>ECE891[SD, BC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE894[TD]  /  []</t>
+  </si>
+  <si>
+    <t>EE802A[KR]  /  []</t>
+  </si>
+  <si>
+    <t>EE894[MB]  /  []</t>
+  </si>
+  <si>
+    <t>EE801A[ASG]  /  []</t>
+  </si>
+  <si>
+    <t>EE891[PG, IB]  /  []</t>
   </si>
 </sst>
 </file>
@@ -498,22 +564,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -526,22 +592,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -554,22 +620,22 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -579,25 +645,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -607,25 +673,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -645,25 +711,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -673,25 +739,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
@@ -701,25 +767,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -729,25 +795,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -757,25 +823,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -795,25 +861,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29">
@@ -823,7 +889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -835,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -851,25 +917,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -879,22 +945,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
@@ -907,25 +973,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37">
@@ -945,7 +1011,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -954,16 +1020,16 @@
         <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -973,25 +1039,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43">
@@ -1001,25 +1067,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45">
@@ -1029,25 +1095,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -1060,22 +1126,22 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
